--- a/ц2.xlsx
+++ b/ц2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1ACDB-2821-4DE2-ACE7-CEB30AB552F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +180,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -420,7 +419,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6BB4-46C5-87A5-DACBF66428BD}"/>
             </c:ext>
@@ -550,103 +549,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>226.60102202648881</c:v>
+                  <c:v>226.60076800682134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>216.38825114320014</c:v>
+                  <c:v>216.38798258572189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.1040978381759</c:v>
+                  <c:v>206.10381305583934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.74758249690382</c:v>
+                  <c:v>195.74727950085713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.31843494152395</c:v>
+                  <c:v>185.31811136839127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.81740049239187</c:v>
+                  <c:v>174.81705350927814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.24666606069087</c:v>
+                  <c:v>164.24629223923046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.61046215654267</c:v>
+                  <c:v>153.61005730255624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142.91593715503149</c:v>
+                  <c:v>142.91549607120521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132.17449053825345</c:v>
+                  <c:v>132.17400667725428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.40395759288117</c:v>
+                  <c:v>121.40342251091408</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.63244416120295</c:v>
+                  <c:v>110.63184657047879</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.905100652836666</c:v>
+                  <c:v>99.904424637247473</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.294766383751551</c:v>
+                  <c:v>89.293987945252184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712412</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712412</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>79.917047675636866</c:v>
+                  <c:v>79.915174520712355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74.32526613210706</c:v>
+                  <c:v>74.325234918879573</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.864588153241527</c:v>
+                  <c:v>65.864560312256799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.213813837192788</c:v>
+                  <c:v>57.213788581791334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.39764302094045</c:v>
+                  <c:v>48.397619792825878</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.435538465312447</c:v>
+                  <c:v>39.435516854976015</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.344398463151606</c:v>
+                  <c:v>30.344378165969033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6BB4-46C5-87A5-DACBF66428BD}"/>
             </c:ext>
@@ -660,11 +659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196858176"/>
-        <c:axId val="207074736"/>
+        <c:axId val="-451248944"/>
+        <c:axId val="-451246768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196858176"/>
+        <c:axId val="-451248944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,12 +720,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207074736"/>
+        <c:crossAx val="-451246768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207074736"/>
+        <c:axId val="-451246768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +782,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196858176"/>
+        <c:crossAx val="-451248944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -797,6 +796,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -828,14 +828,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -871,7 +871,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -885,6 +885,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60390266841644791"/>
+          <c:y val="9.7222222222222224E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,7 +1148,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E408-4DFE-A4F1-8FBFF8536CAE}"/>
             </c:ext>
@@ -1154,11 +1162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1477201327"/>
-        <c:axId val="1500524175"/>
+        <c:axId val="-451246224"/>
+        <c:axId val="-451244592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1477201327"/>
+        <c:axId val="-451246224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,12 +1223,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500524175"/>
+        <c:crossAx val="-451244592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1500524175"/>
+        <c:axId val="-451244592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1285,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1477201327"/>
+        <c:crossAx val="-451246224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,14 +1299,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2465,7 +2473,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C93666-3D16-4358-BB26-BA7ED3924597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28C93666-3D16-4358-BB26-BA7ED3924597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,23 +2493,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EAAA6B-F209-4FCA-AAA5-AD8905DDAD26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9EAAA6B-F209-4FCA-AAA5-AD8905DDAD26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,10 +2808,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -2838,7 +2846,7 @@
       </c>
       <c r="T2">
         <f>MIN(T4:T34)</f>
-        <v>9.9999564262565173</v>
+        <v>9.9999876394840044</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -2913,11 +2921,11 @@
       </c>
       <c r="P4">
         <f>P5+(O4-O5)/$P$2</f>
-        <v>584.96924346451306</v>
+        <v>584.96920823244136</v>
       </c>
       <c r="Q4">
         <f>[1]!PropsSI("T","H",P4*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>226.60102202648881</v>
+        <v>226.60076800682134</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R34" si="0">$O$4-O4</f>
@@ -2929,7 +2937,7 @@
       </c>
       <c r="T4">
         <f>S4-Q4</f>
-        <v>24.488746644400351</v>
+        <v>24.489000664067817</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -2971,11 +2979,11 @@
       </c>
       <c r="P5">
         <f>P6+(O5-O6)/$P$2</f>
-        <v>573.40329461976614</v>
+        <v>573.40325938769445</v>
       </c>
       <c r="Q5">
         <f>[1]!PropsSI("T","H",P5*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>216.38825114320014</v>
+        <v>216.38798258572189</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
@@ -2987,7 +2995,7 @@
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T34" si="1">S5-Q5</f>
-        <v>27.665057569099076</v>
+        <v>27.665326126577327</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -3016,7 +3024,7 @@
         <v>26.412834646180272</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L5:L34" si="3">L5-($I$13-$I$18)/30</f>
+        <f t="shared" ref="L6:L34" si="3">L5-($I$13-$I$18)/30</f>
         <v>671.61040973934325</v>
       </c>
       <c r="M6">
@@ -3029,11 +3037,11 @@
       </c>
       <c r="P6">
         <f>P7+(O6-O7)/$P$2</f>
-        <v>561.83734577501923</v>
+        <v>561.83731054294753</v>
       </c>
       <c r="Q6">
         <f>[1]!PropsSI("T","H",P6*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>206.1040978381759</v>
+        <v>206.10381305583934</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
@@ -3045,7 +3053,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="1"/>
-        <v>30.913019710983747</v>
+        <v>30.913304493320311</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -3087,11 +3095,11 @@
       </c>
       <c r="P7">
         <f t="shared" ref="P7:P32" si="5">P8+(O7-O8)/$P$2</f>
-        <v>550.27139693027232</v>
+        <v>550.27136169820062</v>
       </c>
       <c r="Q7">
         <f>[1]!PropsSI("T","H",P7*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>195.74758249690382</v>
+        <v>195.74727950085713</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
@@ -3103,7 +3111,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="1"/>
-        <v>34.235409841563978</v>
+        <v>34.235712837610663</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -3131,11 +3139,11 @@
       </c>
       <c r="P8">
         <f>P9+(O8-O9)/$P$2</f>
-        <v>538.7054480855254</v>
+        <v>538.70541285345371</v>
       </c>
       <c r="Q8">
         <f>[1]!PropsSI("T","H",P8*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>185.31843494152395</v>
+        <v>185.31811136839127</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
@@ -3147,7 +3155,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>37.634518524034547</v>
+        <v>37.634842097167223</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -3175,11 +3183,11 @@
       </c>
       <c r="P9">
         <f>P10+(O9-O10)/$P$2</f>
-        <v>527.13949924077849</v>
+        <v>527.1394640087068</v>
       </c>
       <c r="Q9">
         <f>[1]!PropsSI("T","H",P9*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>174.81740049239187</v>
+        <v>174.81705350927814</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
@@ -3191,7 +3199,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>41.111870457709756</v>
+        <v>41.112217440823486</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -3219,11 +3227,11 @@
       </c>
       <c r="P10">
         <f>P11+(O10-O11)/$P$2</f>
-        <v>515.57355039603158</v>
+        <v>515.57351516395988</v>
       </c>
       <c r="Q10">
         <f>[1]!PropsSI("T","H",P10*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>164.24666606069087</v>
+        <v>164.24629223923046</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
@@ -3235,7 +3243,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>44.667827936742015</v>
+        <v>44.668201758202429</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -3272,11 +3280,11 @@
       </c>
       <c r="P11">
         <f>P12+(O11-O12)/$P$2</f>
-        <v>504.00760155128467</v>
+        <v>504.00756631921297</v>
       </c>
       <c r="Q11">
         <f>[1]!PropsSI("T","H",P11*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>153.61046215654267</v>
+        <v>153.61005730255624</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
@@ -3288,7 +3296,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>48.301021875459128</v>
+        <v>48.301426729445552</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -3325,11 +3333,11 @@
       </c>
       <c r="P12">
         <f t="shared" si="5"/>
-        <v>492.44165270653775</v>
+        <v>492.44161747446606</v>
       </c>
       <c r="Q12">
         <f>[1]!PropsSI("T","H",P12*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>142.91593715503149</v>
+        <v>142.91549607120521</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
@@ -3341,7 +3349,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>52.007514411925513</v>
+        <v>52.007955495751787</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -3378,11 +3386,11 @@
       </c>
       <c r="P13">
         <f t="shared" si="5"/>
-        <v>480.87570386179084</v>
+        <v>480.87566862971914</v>
       </c>
       <c r="Q13">
         <f>[1]!PropsSI("T","H",P13*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>132.17449053825345</v>
+        <v>132.17400667725428</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
@@ -3394,7 +3402,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>55.779506736048972</v>
+        <v>55.77999059704814</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -3423,11 +3431,11 @@
       </c>
       <c r="P14">
         <f t="shared" si="5"/>
-        <v>469.30975501704393</v>
+        <v>469.30971978497223</v>
       </c>
       <c r="Q14">
         <f>[1]!PropsSI("T","H",P14*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>121.40395759288117</v>
+        <v>121.40342251091408</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
@@ -3439,7 +3447,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>59.603200027272692</v>
+        <v>59.603735109239778</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -3468,11 +3476,11 @@
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>457.74380617229701</v>
+        <v>457.74377094022532</v>
       </c>
       <c r="Q15">
         <f>[1]!PropsSI("T","H",P15*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>110.63244416120295</v>
+        <v>110.63184657047879</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
@@ -3484,7 +3492,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>63.455011253594819</v>
+        <v>63.455608844318988</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -3526,11 +3534,11 @@
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
-        <v>446.1778573275501</v>
+        <v>446.1778220954784</v>
       </c>
       <c r="Q16">
         <f>[1]!PropsSI("T","H",P16*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>99.905100652836666</v>
+        <v>99.904424637247473</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
@@ -3542,21 +3550,21 @@
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>67.294854938859146</v>
+        <v>67.295530954448338</v>
       </c>
       <c r="V16" t="s">
         <v>3</v>
       </c>
       <c r="W16">
         <f>Q4</f>
-        <v>226.60102202648881</v>
+        <v>226.60076800682134</v>
       </c>
       <c r="Y16" t="s">
         <v>3</v>
       </c>
       <c r="Z16">
         <f>[1]!PropsSI("T","P",Z17*1000000,"H",Z19*1000,B21)-273.15</f>
-        <v>193.36760312089905</v>
+        <v>193.36846916740353</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -3565,7 +3573,7 @@
       </c>
       <c r="B17">
         <f>((W18-Z19)*0.99*0.99*P2-P2*((W31-Z30)/(0.99*0.99)))</f>
-        <v>21.319553529209102</v>
+        <v>21.31892470277441</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -3599,11 +3607,11 @@
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
-        <v>434.61190848280319</v>
+        <v>434.61187325073149</v>
       </c>
       <c r="Q17">
         <f>[1]!PropsSI("T","H",P17*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>89.294766383751551</v>
+        <v>89.293987945252184</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
@@ -3615,7 +3623,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>71.055560082187014</v>
+        <v>71.056338520686381</v>
       </c>
       <c r="V17" t="s">
         <v>5</v>
@@ -3629,7 +3637,7 @@
       </c>
       <c r="Z17">
         <f>Z29</f>
-        <v>0.244313382422956</v>
+        <v>0.24432432538516546</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -3638,7 +3646,7 @@
       </c>
       <c r="B18">
         <f>B16+B17</f>
-        <v>105.01470971691215</v>
+        <v>105.01408089047746</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -3672,11 +3680,11 @@
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>423.04595963805627</v>
+        <v>423.04592440598458</v>
       </c>
       <c r="Q18">
         <f>[1]!PropsSI("T","H",P18*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
@@ -3688,21 +3696,21 @@
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
-        <v>73.627858946216691</v>
+        <v>73.629732101141201</v>
       </c>
       <c r="V18" t="s">
         <v>7</v>
       </c>
       <c r="W18">
         <f>P4</f>
-        <v>584.96924346451306</v>
+        <v>584.96920823244136</v>
       </c>
       <c r="Y18" t="s">
         <v>8</v>
       </c>
       <c r="Z18">
         <f>[1]!PropsSI("H","P",Z17*1000000,"S",W19*1000,B21)/1000</f>
-        <v>549.00258104223326</v>
+        <v>549.0036271125731</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -3711,7 +3719,7 @@
       </c>
       <c r="B19">
         <f>B18/B15*100</f>
-        <v>21.782038191319412</v>
+        <v>21.78190776081636</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -3745,11 +3753,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="5"/>
-        <v>411.48001079330936</v>
+        <v>411.47997556123767</v>
       </c>
       <c r="Q19">
         <f>[1]!PropsSI("T","H",P19*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
@@ -3761,21 +3769,21 @@
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>66.873729754776491</v>
+        <v>66.875602909701001</v>
       </c>
       <c r="V19" t="s">
         <v>10</v>
       </c>
       <c r="W19">
         <f>[1]!PropsSI("S","H",W18*1000,"P",W17*1000000,B21)/1000</f>
-        <v>2.0516145694449461</v>
+        <v>2.0516168278403435</v>
       </c>
       <c r="Y19" t="s">
         <v>7</v>
       </c>
       <c r="Z19">
         <f>W18-(W18-Z18)*B25</f>
-        <v>552.59924728446128</v>
+        <v>552.60018522455994</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3797,11 +3805,11 @@
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
-        <v>399.91406194856245</v>
+        <v>399.91402671649075</v>
       </c>
       <c r="Q20">
         <f>[1]!PropsSI("T","H",P20*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712412</v>
       </c>
       <c r="R20">
         <f t="shared" si="0"/>
@@ -3813,7 +3821,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>60.178793310528306</v>
+        <v>60.180666465452759</v>
       </c>
       <c r="V20" t="s">
         <v>24</v>
@@ -3852,11 +3860,11 @@
       </c>
       <c r="P21">
         <f t="shared" si="5"/>
-        <v>388.34811310381554</v>
+        <v>388.34807787174384</v>
       </c>
       <c r="Q21">
         <f>[1]!PropsSI("T","H",P21*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R21">
         <f t="shared" si="0"/>
@@ -3868,7 +3876,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>53.551855288067998</v>
+        <v>53.553728442992508</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3896,11 +3904,11 @@
       </c>
       <c r="P22">
         <f t="shared" si="5"/>
-        <v>376.78216425906862</v>
+        <v>376.78212902699693</v>
       </c>
       <c r="Q22">
         <f>[1]!PropsSI("T","H",P22*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R22">
         <f t="shared" si="0"/>
@@ -3912,7 +3920,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>47.002711827963594</v>
+        <v>47.004584982888105</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3940,11 +3948,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="5"/>
-        <v>365.21621541432171</v>
+        <v>365.21618018225001</v>
       </c>
       <c r="Q23">
         <f>[1]!PropsSI("T","H",P23*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R23">
         <f t="shared" si="0"/>
@@ -3956,7 +3964,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>40.542239040876382</v>
+        <v>40.544112195800892</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3978,11 +3986,11 @@
       </c>
       <c r="P24">
         <f t="shared" si="5"/>
-        <v>353.6502665695748</v>
+        <v>353.6502313375031</v>
       </c>
       <c r="Q24">
         <f>[1]!PropsSI("T","H",P24*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
@@ -3994,7 +4002,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="1"/>
-        <v>34.182483020347377</v>
+        <v>34.184356175271887</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -4022,11 +4030,11 @@
       </c>
       <c r="P25">
         <f t="shared" si="5"/>
-        <v>342.08431772482788</v>
+        <v>342.08428249275619</v>
       </c>
       <c r="Q25">
         <f>[1]!PropsSI("T","H",P25*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712412</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
@@ -4038,7 +4046,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
-        <v>27.936747306189091</v>
+        <v>27.938620461113544</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -4060,11 +4068,11 @@
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>330.51836888008097</v>
+        <v>330.51833364800927</v>
       </c>
       <c r="Q26">
         <f>[1]!PropsSI("T","H",P26*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
@@ -4076,7 +4084,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="1"/>
-        <v>21.819673445989451</v>
+        <v>21.821546600913962</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -4098,11 +4106,11 @@
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>318.95242003533406</v>
+        <v>318.95238480326236</v>
       </c>
       <c r="Q27">
         <f>[1]!PropsSI("T","H",P27*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
@@ -4114,7 +4122,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="1"/>
-        <v>15.847308625051824</v>
+        <v>15.849181779976334</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -4136,11 +4144,11 @@
       </c>
       <c r="P28">
         <f t="shared" si="5"/>
-        <v>307.38647119058714</v>
+        <v>307.38643595851545</v>
       </c>
       <c r="Q28">
         <f>[1]!PropsSI("T","H",P28*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>79.917047675636866</v>
+        <v>79.915174520712355</v>
       </c>
       <c r="R28">
         <f t="shared" si="0"/>
@@ -4152,14 +4160,14 @@
       </c>
       <c r="T28">
         <f t="shared" si="1"/>
-        <v>10.037152559071671</v>
+        <v>10.039025713996182</v>
       </c>
       <c r="V28" t="s">
         <v>3</v>
       </c>
       <c r="W28">
         <f>[1]!PropsSI("T","P",W29*1000000,"H",W31*1000,B21)-273.15</f>
-        <v>30.344398463151606</v>
+        <v>30.344378165969033</v>
       </c>
       <c r="Y28" t="s">
         <v>3</v>
@@ -4187,11 +4195,11 @@
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>295.82052234584023</v>
+        <v>295.82048711376854</v>
       </c>
       <c r="Q29">
         <f>[1]!PropsSI("T","H",P29*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>74.32526613210706</v>
+        <v>74.325234918879573</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
@@ -4203,7 +4211,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="1"/>
-        <v>9.9999564262565173</v>
+        <v>9.9999876394840044</v>
       </c>
       <c r="V29" t="s">
         <v>5</v>
@@ -4217,7 +4225,7 @@
       </c>
       <c r="Z29">
         <f>[1]!PropsSI("P","T",Z28+273.15,"Q",0,B21)/1000000</f>
-        <v>0.244313382422956</v>
+        <v>0.24432432538516546</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -4239,11 +4247,11 @@
       </c>
       <c r="P30">
         <f t="shared" si="5"/>
-        <v>284.25457350109332</v>
+        <v>284.25453826902162</v>
       </c>
       <c r="Q30">
         <f>[1]!PropsSI("T","H",P30*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>65.864588153241527</v>
+        <v>65.864560312256799</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4255,14 +4263,14 @@
       </c>
       <c r="T30">
         <f t="shared" si="1"/>
-        <v>13.033254478440426</v>
+        <v>13.033282319425155</v>
       </c>
       <c r="V30" t="s">
         <v>8</v>
       </c>
       <c r="W30">
         <f>[1]!PropsSI("H","P",W29*1000000,"S",Z31*1000,B21)/1000</f>
-        <v>237.93128464648549</v>
+        <v>237.93125293762083</v>
       </c>
       <c r="Y30" t="s">
         <v>7</v>
@@ -4291,11 +4299,11 @@
       </c>
       <c r="P31">
         <f t="shared" si="5"/>
-        <v>272.68862465634641</v>
+        <v>272.68858942427471</v>
       </c>
       <c r="Q31">
         <f>[1]!PropsSI("T","H",P31*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>57.213813837192788</v>
+        <v>57.213788581791334</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4307,14 +4315,14 @@
       </c>
       <c r="T31">
         <f t="shared" si="1"/>
-        <v>16.480049336876959</v>
+        <v>16.480074592278413</v>
       </c>
       <c r="V31" t="s">
         <v>7</v>
       </c>
       <c r="W31">
         <f>Z30+(W30-Z30)/B23</f>
-        <v>237.99077812210587</v>
+        <v>237.990742890034</v>
       </c>
       <c r="Y31" t="s">
         <v>10</v>
@@ -4343,11 +4351,11 @@
       </c>
       <c r="P32">
         <f t="shared" si="5"/>
-        <v>261.12267581159949</v>
+        <v>261.1226405795278</v>
       </c>
       <c r="Q32">
         <f>[1]!PropsSI("T","H",P32*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>48.39764302094045</v>
+        <v>48.397619792825878</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4359,7 +4367,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="1"/>
-        <v>20.338693052405176</v>
+        <v>20.338716280519748</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4381,11 +4389,11 @@
       </c>
       <c r="P33">
         <f>P34+(O33-O34)/$P$2</f>
-        <v>249.55672696685261</v>
+        <v>249.55669173478088</v>
       </c>
       <c r="Q33">
         <f>[1]!PropsSI("T","H",P33*1000,"P",$W$29*1000000,$B$21)-273.15</f>
-        <v>39.435538465312447</v>
+        <v>39.435516854976015</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4397,7 +4405,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="1"/>
-        <v>24.613760934425954</v>
+        <v>24.613782544762387</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -4418,11 +4426,11 @@
       </c>
       <c r="P34">
         <f>[1]!PropsSI("H","T",Q34+273.15,"P",$W$29*1000000,$B$21)/1000</f>
-        <v>237.99077812210584</v>
+        <v>237.99074289003411</v>
       </c>
       <c r="Q34">
         <f>W28</f>
-        <v>30.344398463151606</v>
+        <v>30.344378165969033</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4434,13 +4442,13 @@
       </c>
       <c r="T34">
         <f t="shared" si="1"/>
-        <v>29.312873675188314</v>
+        <v>29.312893972370887</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>B19</f>
-        <v>21.782038191319412</v>
+        <v>21.78190776081636</v>
       </c>
       <c r="B36">
         <v>0.25</v>
